--- a/resources/img/streetscapes_exemple_sheet.xlsx
+++ b/resources/img/streetscapes_exemple_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>streetscape_MUF_Kings-Crescent_01.jpg, streetscape_MUF_Kings-Crescent_02.jpg</t>
   </si>
@@ -34,7 +34,7 @@
     <t>UK</t>
   </si>
   <si>
-    <t>http://muf.co.uk/portfolio/kings-crescent-2018/</t>
+    <t>https://link.com/, http://link2.com</t>
   </si>
   <si>
     <t>built</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>DENMARK</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/@55.6647298,12.6237392,3a,75y,239.01h,83.25t/data=!3m6!1e1!3m4!1swAAV8ZtT9udX-DVxwdT30g!2e0!7i16384!8i8192</t>
   </si>
   <si>
     <t>55.664820, 12.624332</t>
@@ -78,19 +75,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -151,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -162,14 +153,11 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,20 +467,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="75.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="40.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="75.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="147.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="40.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -509,22 +497,22 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -538,35 +526,35 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
